--- a/docs/Resoluciómanual.xlsx
+++ b/docs/Resoluciómanual.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>0t</t>
   </si>
@@ -105,6 +105,21 @@
   </si>
   <si>
     <t>M19</t>
+  </si>
+  <si>
+    <t>Fadim</t>
+  </si>
+  <si>
+    <t>mpunto</t>
+  </si>
+  <si>
+    <t>mcore</t>
+  </si>
+  <si>
+    <t>msecundari</t>
+  </si>
+  <si>
+    <t>mfuel</t>
   </si>
 </sst>
 </file>
@@ -422,14 +437,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J21"/>
+  <dimension ref="B2:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" customWidth="1"/>
@@ -702,6 +718,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>5.33</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23">
+        <v>15.56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <f>C23</f>
+        <v>15.56</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>36.56</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Resoluciómanual.xlsx
+++ b/docs/Resoluciómanual.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Real sense mixer" sheetId="1" r:id="rId1"/>
+    <sheet name="Verificacio turbofan" sheetId="2" r:id="rId2"/>
+    <sheet name="Verificació motor real" sheetId="3" r:id="rId3"/>
+    <sheet name="Verificació MIXER" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="102">
   <si>
     <t>0t</t>
   </si>
@@ -120,6 +123,216 @@
   </si>
   <si>
     <t>mfuel</t>
+  </si>
+  <si>
+    <t>Dades del problema</t>
+  </si>
+  <si>
+    <t>PI.f</t>
+  </si>
+  <si>
+    <t>PI.c</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Tt4</t>
+  </si>
+  <si>
+    <t>PROBLEMA 2.4</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Resultats guia problemes</t>
+  </si>
+  <si>
+    <t>TAU.c</t>
+  </si>
+  <si>
+    <t>TAU.f</t>
+  </si>
+  <si>
+    <t>PI.r</t>
+  </si>
+  <si>
+    <t>TAU.r</t>
+  </si>
+  <si>
+    <t>TAU.lamb</t>
+  </si>
+  <si>
+    <t>TAU.tH</t>
+  </si>
+  <si>
+    <t>PI.tH</t>
+  </si>
+  <si>
+    <t>TAU.tL</t>
+  </si>
+  <si>
+    <t>PI.tL</t>
+  </si>
+  <si>
+    <t>m0</t>
+  </si>
+  <si>
+    <t>mf</t>
+  </si>
+  <si>
+    <t>Resultats programa Matlab</t>
+  </si>
+  <si>
+    <t>Error relatiu</t>
+  </si>
+  <si>
+    <t>PROBLEMA 4.2</t>
+  </si>
+  <si>
+    <t>Dades</t>
+  </si>
+  <si>
+    <t>ETAd</t>
+  </si>
+  <si>
+    <t>Pic</t>
+  </si>
+  <si>
+    <t>Pib</t>
+  </si>
+  <si>
+    <t>ETAc</t>
+  </si>
+  <si>
+    <t>ETAb</t>
+  </si>
+  <si>
+    <t>ETAn</t>
+  </si>
+  <si>
+    <t>Pir</t>
+  </si>
+  <si>
+    <t>Pid</t>
+  </si>
+  <si>
+    <t>Pit</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>TAUr</t>
+  </si>
+  <si>
+    <t>TAUc</t>
+  </si>
+  <si>
+    <t>TAUlamb</t>
+  </si>
+  <si>
+    <t>TAUt</t>
+  </si>
+  <si>
+    <t>Pt0</t>
+  </si>
+  <si>
+    <t>PT2</t>
+  </si>
+  <si>
+    <t>Pt3</t>
+  </si>
+  <si>
+    <t>Pt5</t>
+  </si>
+  <si>
+    <t>Pt9</t>
+  </si>
+  <si>
+    <t>Tt0</t>
+  </si>
+  <si>
+    <t>Tt2</t>
+  </si>
+  <si>
+    <t>Tt3</t>
+  </si>
+  <si>
+    <t>Pt4</t>
+  </si>
+  <si>
+    <t>Tt5</t>
+  </si>
+  <si>
+    <t>Tt9</t>
+  </si>
+  <si>
+    <t>Resultats MATLAB</t>
+  </si>
+  <si>
+    <t>PROBLEMA 2.5</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>Tt5/To</t>
+  </si>
+  <si>
+    <t>Pt5/P0</t>
+  </si>
+  <si>
+    <t>m5/m6</t>
+  </si>
+  <si>
+    <t>M13</t>
+  </si>
+  <si>
+    <t>T13/T0</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>gamma5</t>
+  </si>
+  <si>
+    <t>gamma13</t>
+  </si>
+  <si>
+    <t>Resultats guia problema</t>
+  </si>
+  <si>
+    <t>Resultats codi MATLAB</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>Cp13</t>
+  </si>
+  <si>
+    <t>Cp5</t>
+  </si>
+  <si>
+    <t>Cp6</t>
+  </si>
+  <si>
+    <t>gamma6</t>
+  </si>
+  <si>
+    <t>M6</t>
   </si>
 </sst>
 </file>
@@ -439,7 +652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -762,4 +975,926 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>1.5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5">
+        <v>2.0339</v>
+      </c>
+      <c r="M5">
+        <f>ABS((G5-K5)/K5)*100</f>
+        <v>0.19174984020847813</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6">
+        <v>1.1228</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M18" si="0">ABS((G6-K6)/K6)*100</f>
+        <v>0.24937655860348359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>50000</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <v>1143</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9">
+        <v>3.97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9">
+        <v>3.9666999999999999</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>8.3192578213636084E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10">
+        <v>0.77</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10">
+        <v>0.77329999999999999</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>0.42674253200568596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11">
+        <v>0.4</v>
+      </c>
+      <c r="J11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11">
+        <v>0.40670000000000001</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>1.647405950331936</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="J12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12">
+        <v>0.72340000000000004</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>0.22117777163394178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="J13" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>0.62111801242236087</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <v>0.82</v>
+      </c>
+      <c r="J14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14">
+        <v>0.83030000000000004</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>1.2405154763338655</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="J15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15">
+        <v>0.78369999999999995</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>8.9319892816118782E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16">
+        <v>5.8360000000000003</v>
+      </c>
+      <c r="J16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16">
+        <v>5.8769999999999998</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>0.6976348477114086</v>
+      </c>
+    </row>
+    <row r="17" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17">
+        <v>26.2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17">
+        <v>25.003799999999998</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>4.7840728209312227</v>
+      </c>
+    </row>
+    <row r="18" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="J18" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18">
+        <v>0.33410000000000001</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>2.3645615085303855</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4">
+        <v>0.92</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4">
+        <v>1.52</v>
+      </c>
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4">
+        <v>1.5243</v>
+      </c>
+      <c r="K4">
+        <f>100*ABS((F4-I4)/I4)</f>
+        <v>0.28209670012464544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5">
+        <v>0.92</v>
+      </c>
+      <c r="H5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5">
+        <v>0.92</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K24" si="0">100*ABS((F5-I5)/I5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6">
+        <v>0.97</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="H6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6">
+        <v>0.28289999999999998</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>3.499469777306456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>1700</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7">
+        <v>0.92</v>
+      </c>
+      <c r="H7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7">
+        <v>0.92</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>0.86</v>
+      </c>
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8">
+        <v>1.1279999999999999</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8">
+        <v>1.1279999999999999</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10">
+        <v>0.92</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10">
+        <v>2.76</v>
+      </c>
+      <c r="H10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10">
+        <v>2.7541000000000002</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>0.21422606296066124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11">
+        <v>6.93</v>
+      </c>
+      <c r="H11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11">
+        <v>6.9387999999999996</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>0.12682308180088658</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12">
+        <v>0.75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12">
+        <v>0.72130000000000005</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>3.9789269374739975</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14">
+        <f>91.2*10^3</f>
+        <v>91200</v>
+      </c>
+      <c r="H14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14">
+        <v>91460</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>0.28427727968510824</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15">
+        <f>83.9*10^3</f>
+        <v>83900</v>
+      </c>
+      <c r="H15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15">
+        <v>84144</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>0.28997908347594603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16">
+        <f>10^3*2098</f>
+        <v>2098000</v>
+      </c>
+      <c r="H16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16">
+        <f>2.1036*10^6</f>
+        <v>2103600</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>0.26621030614185209</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17">
+        <f>10^3*2034</f>
+        <v>2034000</v>
+      </c>
+      <c r="H17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17">
+        <f>2.0405*10^6</f>
+        <v>2040500.0000000002</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>0.31854937515316012</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18">
+        <f>10^3*570</f>
+        <v>570000</v>
+      </c>
+      <c r="H18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18">
+        <f>5.7717*10^5</f>
+        <v>577170</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>1.2422683091636779</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19">
+        <f>F18*0.92</f>
+        <v>524400</v>
+      </c>
+      <c r="H19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19">
+        <f>5.31*10^5</f>
+        <v>531000</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>1.2429378531073447</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20">
+        <v>276.3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20">
+        <v>276.36</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>2.1710811984369038E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21">
+        <v>276.3</v>
+      </c>
+      <c r="H21" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21">
+        <v>276.36</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>2.1710811984369038E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22">
+        <v>760</v>
+      </c>
+      <c r="H22" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22">
+        <v>761.10979999999995</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>0.14581338986831469</v>
+      </c>
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23">
+        <v>1282</v>
+      </c>
+      <c r="H23" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23">
+        <v>1226.3</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>4.5421185680502365</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24">
+        <v>1282</v>
+      </c>
+      <c r="H24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24">
+        <v>1226.3</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>4.5421185680502365</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5">
+        <v>1004.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6">
+        <v>4.2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6">
+        <v>1248.5999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7">
+        <v>0.72</v>
+      </c>
+      <c r="E7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7">
+        <v>1176.5999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8">
+        <v>0.39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9">
+        <v>1.51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13">
+        <v>1.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/Resoluciómanual.xlsx
+++ b/docs/Resoluciómanual.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="102">
   <si>
     <t>0t</t>
   </si>
@@ -317,9 +317,6 @@
     <t>Resultats codi MATLAB</t>
   </si>
   <si>
-    <t>R6</t>
-  </si>
-  <si>
     <t>Cp13</t>
   </si>
   <si>
@@ -333,6 +330,9 @@
   </si>
   <si>
     <t>M6</t>
+  </si>
+  <si>
+    <t>Error relatiu (%)</t>
   </si>
 </sst>
 </file>
@@ -1751,10 +1751,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1762,37 +1762,34 @@
     <col min="5" max="5" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>56</v>
       </c>
       <c r="E3" t="s">
         <v>94</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>84</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>85</v>
       </c>
@@ -1800,13 +1797,23 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F5">
         <v>1004.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5">
+        <v>1004.5</v>
+      </c>
+      <c r="K5">
+        <f>100*(ABS((F5-I5)/I5))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>86</v>
       </c>
@@ -1814,13 +1821,23 @@
         <v>4.2</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F6">
         <v>1248.5999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6">
+        <v>1243.7</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:K9" si="0">100*(ABS((F6-I6)/I6))</f>
+        <v>0.39398568786683796</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>87</v>
       </c>
@@ -1828,13 +1845,23 @@
         <v>0.72</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7">
         <v>1176.5999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7">
+        <v>1176.7</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>8.49834282316108E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>88</v>
       </c>
@@ -1842,13 +1869,23 @@
         <v>0.39</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8">
         <v>1.32</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8">
+        <v>1.3226</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0.19658248903674092</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>89</v>
       </c>
@@ -1856,13 +1893,23 @@
         <v>1.51</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F9">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0.58479532163742742</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>90</v>
       </c>
@@ -1870,7 +1917,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>91</v>
       </c>
@@ -1878,7 +1925,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>92</v>
       </c>
@@ -1886,7 +1933,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>93</v>
       </c>

--- a/docs/Resoluciómanual.xlsx
+++ b/docs/Resoluciómanual.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Real sense mixer" sheetId="1" r:id="rId1"/>
     <sheet name="Verificacio turbofan" sheetId="2" r:id="rId2"/>
     <sheet name="Verificació motor real" sheetId="3" r:id="rId3"/>
     <sheet name="Verificació MIXER" sheetId="4" r:id="rId4"/>
+    <sheet name="Verificació turboPROP" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="112">
   <si>
     <t>0t</t>
   </si>
@@ -333,6 +334,36 @@
   </si>
   <si>
     <t>Error relatiu (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problema 3.3 </t>
+  </si>
+  <si>
+    <t>M0</t>
+  </si>
+  <si>
+    <t>ETAprop</t>
+  </si>
+  <si>
+    <t>PI.C</t>
+  </si>
+  <si>
+    <t>Tt45</t>
+  </si>
+  <si>
+    <t>Pt2</t>
+  </si>
+  <si>
+    <t>Pt45</t>
+  </si>
+  <si>
+    <t>Cc</t>
+  </si>
+  <si>
+    <t>Cprop</t>
+  </si>
+  <si>
+    <t>Ctot</t>
   </si>
 </sst>
 </file>
@@ -1753,7 +1784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -1944,4 +1975,407 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4">
+        <v>261.60000000000002</v>
+      </c>
+      <c r="I4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4">
+        <v>261.60750000000002</v>
+      </c>
+      <c r="L4">
+        <f>100*ABS((F4-J4)/J4)</f>
+        <v>2.8668902841062199E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>6000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5">
+        <v>261.60000000000002</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5">
+        <v>261.60750000000002</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L21" si="0">100*ABS((F5-J5)/J5)</f>
+        <v>2.8668902841062199E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6">
+        <v>0.95</v>
+      </c>
+      <c r="E6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6">
+        <v>628.54</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6">
+        <v>628.56020000000001</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>3.213693771900495E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7">
+        <v>1744.05</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7">
+        <v>1744.1</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>2.8668080958634554E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8">
+        <v>21.5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8">
+        <v>1377.8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8">
+        <v>1386.6</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>0.6346458964373255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9">
+        <v>704</v>
+      </c>
+      <c r="I9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9">
+        <v>708.72469999999998</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0.66664813572886406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10">
+        <v>704</v>
+      </c>
+      <c r="I10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10">
+        <v>708.72469999999998</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>0.66664813572886406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11">
+        <v>55925</v>
+      </c>
+      <c r="I11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11">
+        <f>5.6132*10^4</f>
+        <v>56132</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>0.36877360507375473</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12">
+        <v>55925</v>
+      </c>
+      <c r="I12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12">
+        <f>5.6132*10^4</f>
+        <v>56132</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>0.36877360507375473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13">
+        <f>1202*10^3</f>
+        <v>1202000</v>
+      </c>
+      <c r="I13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13">
+        <f>1.2068*10^6</f>
+        <v>1206800</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>0.39774610540271793</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14">
+        <f>1202*10^3</f>
+        <v>1202000</v>
+      </c>
+      <c r="I14" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14">
+        <f>1.2068*10^6</f>
+        <v>1206800</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0.39774610540271793</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15">
+        <f>526.7*10^3</f>
+        <v>526700</v>
+      </c>
+      <c r="I15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J15">
+        <f>5.4105*10^5</f>
+        <v>541050</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>2.6522502541354775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16">
+        <f>50.56*10^3</f>
+        <v>50560</v>
+      </c>
+      <c r="I16" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16">
+        <f>5.1625*10^4</f>
+        <v>51625</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>2.0629539951573852</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17">
+        <f>50.56*10^3</f>
+        <v>50560</v>
+      </c>
+      <c r="I17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17">
+        <f>5.1625*10^4</f>
+        <v>51625</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>2.0629539951573852</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18">
+        <v>0.32</v>
+      </c>
+      <c r="I18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18">
+        <v>0.35489999999999999</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>9.8337559876021388</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>109</v>
+      </c>
+      <c r="J19">
+        <f>2.6645*10^(-6)</f>
+        <v>2.6644999999999996E-6</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20">
+        <v>256.89999999999998</v>
+      </c>
+      <c r="I20" t="s">
+        <v>110</v>
+      </c>
+      <c r="J20">
+        <v>256.73820000000001</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>6.3021396893789494E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21">
+        <v>256.89999999999998</v>
+      </c>
+      <c r="I21" t="s">
+        <v>111</v>
+      </c>
+      <c r="J21">
+        <v>256.73820000000001</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>6.3021396893789494E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>